--- a/数据表/Item.xlsx
+++ b/数据表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="675" firstSheet="7"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="675" firstSheet="7"/>
   </bookViews>
   <sheets>
     <sheet name="t_item" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,60 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="39">
+  <si>
+    <t>itemid_k</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>namesid</t>
+  </si>
+  <si>
+    <t>dessid</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>itemtype</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>ruleid</t>
+  </si>
+  <si>
+    <t>rarevalue</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>maxnum</t>
+  </si>
+  <si>
+    <t>uselogic</t>
+  </si>
+  <si>
+    <t>parameter_1</t>
+  </si>
+  <si>
+    <t>parameter_2</t>
+  </si>
+  <si>
+    <t>parameter_3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t xml:space="preserve">//ID
 道具id0-199999999
@@ -82,60 +136,6 @@
   </si>
   <si>
     <t>参数3</t>
-  </si>
-  <si>
-    <t>itemid_k</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>namesid</t>
-  </si>
-  <si>
-    <t>dessid</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>itemtype</t>
-  </si>
-  <si>
-    <t>subtype</t>
-  </si>
-  <si>
-    <t>ruleid</t>
-  </si>
-  <si>
-    <t>rarevalue</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>maxnum</t>
-  </si>
-  <si>
-    <t>uselogic</t>
-  </si>
-  <si>
-    <t>parameter_1</t>
-  </si>
-  <si>
-    <t>parameter_2</t>
-  </si>
-  <si>
-    <t>parameter_3</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>经验</t>
@@ -773,11 +773,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1097,11 +1097,11 @@
   <dimension ref="A1:O307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,8 +1121,8 @@
     <col min="15" max="15" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1137,25 +1137,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1176,89 +1176,89 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="90" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L3" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1275,7 +1275,6 @@
       <c r="D5">
         <v>22</v>
       </c>
-      <c r="E5"/>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1317,7 +1316,6 @@
       <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1359,7 +1357,6 @@
       <c r="D7">
         <v>22</v>
       </c>
-      <c r="E7"/>
       <c r="F7">
         <v>1</v>
       </c>
@@ -2101,14 +2098,9 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
       <c r="I38">
         <v>3</v>
       </c>
@@ -2130,14 +2122,9 @@
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
       <c r="I39">
         <v>3</v>
       </c>
@@ -2159,14 +2146,9 @@
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
       <c r="I40">
         <v>3</v>
       </c>
@@ -2188,14 +2170,9 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
       <c r="I41">
         <v>3</v>
       </c>
@@ -2217,14 +2194,9 @@
       <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
       <c r="I42">
         <v>3</v>
       </c>
@@ -2246,14 +2218,9 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
       <c r="I43">
         <v>3</v>
       </c>
@@ -2275,14 +2242,9 @@
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
       <c r="I44">
         <v>3</v>
       </c>
@@ -2304,14 +2266,9 @@
       <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
       <c r="I45">
         <v>3</v>
       </c>
@@ -2333,14 +2290,9 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
       <c r="I46">
         <v>3</v>
       </c>
@@ -2362,14 +2314,9 @@
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
       <c r="I47">
         <v>3</v>
       </c>
@@ -2391,14 +2338,9 @@
       <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
       <c r="I48">
         <v>3</v>
       </c>
@@ -2420,14 +2362,9 @@
       <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
       <c r="I49">
         <v>3</v>
       </c>
@@ -2449,14 +2386,9 @@
       <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
       <c r="I50">
         <v>3</v>
       </c>
@@ -2478,14 +2410,9 @@
       <c r="B51" t="s">
         <v>36</v>
       </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
       <c r="I51">
         <v>3</v>
       </c>
@@ -2507,14 +2434,9 @@
       <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
       <c r="I52">
         <v>3</v>
       </c>
@@ -2536,14 +2458,9 @@
       <c r="B53" t="s">
         <v>36</v>
       </c>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
       <c r="I53">
         <v>3</v>
       </c>
@@ -2565,14 +2482,9 @@
       <c r="B54" t="s">
         <v>36</v>
       </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54"/>
-      <c r="H54"/>
       <c r="I54">
         <v>3</v>
       </c>
@@ -2594,14 +2506,9 @@
       <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
       <c r="I55">
         <v>3</v>
       </c>
@@ -2623,14 +2530,9 @@
       <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
       <c r="I56">
         <v>3</v>
       </c>
@@ -2652,14 +2554,9 @@
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
       <c r="I57">
         <v>3</v>
       </c>
@@ -2681,14 +2578,9 @@
       <c r="B58" t="s">
         <v>36</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
       <c r="I58">
         <v>3</v>
       </c>
@@ -2710,14 +2602,9 @@
       <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
       <c r="I59">
         <v>3</v>
       </c>
@@ -2739,14 +2626,9 @@
       <c r="B60" t="s">
         <v>36</v>
       </c>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
       <c r="I60">
         <v>3</v>
       </c>
@@ -2768,14 +2650,9 @@
       <c r="B61" t="s">
         <v>36</v>
       </c>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
       <c r="I61">
         <v>3</v>
       </c>
@@ -2797,14 +2674,9 @@
       <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
       <c r="I62">
         <v>3</v>
       </c>
@@ -2826,14 +2698,9 @@
       <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
       <c r="I63">
         <v>3</v>
       </c>
@@ -2855,14 +2722,9 @@
       <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
       <c r="I64">
         <v>3</v>
       </c>
@@ -2884,14 +2746,9 @@
       <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
       <c r="I65">
         <v>3</v>
       </c>
@@ -2913,14 +2770,9 @@
       <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
       <c r="I66">
         <v>3</v>
       </c>
@@ -2942,14 +2794,9 @@
       <c r="B67" t="s">
         <v>36</v>
       </c>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67"/>
-      <c r="H67"/>
       <c r="I67">
         <v>3</v>
       </c>
@@ -2971,14 +2818,9 @@
       <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
       <c r="I68">
         <v>3</v>
       </c>
@@ -3000,14 +2842,9 @@
       <c r="B69" t="s">
         <v>36</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
       <c r="I69">
         <v>3</v>
       </c>
@@ -3029,14 +2866,9 @@
       <c r="B70" t="s">
         <v>36</v>
       </c>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70"/>
-      <c r="H70"/>
       <c r="I70">
         <v>3</v>
       </c>
@@ -3058,14 +2890,9 @@
       <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
       <c r="I71">
         <v>3</v>
       </c>
@@ -3087,14 +2914,9 @@
       <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72"/>
-      <c r="H72"/>
       <c r="I72">
         <v>3</v>
       </c>
@@ -3116,14 +2938,9 @@
       <c r="B73" t="s">
         <v>36</v>
       </c>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73"/>
-      <c r="H73"/>
       <c r="I73">
         <v>3</v>
       </c>
@@ -3145,14 +2962,9 @@
       <c r="B74" t="s">
         <v>36</v>
       </c>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74"/>
-      <c r="H74"/>
       <c r="I74">
         <v>3</v>
       </c>
@@ -3174,14 +2986,9 @@
       <c r="B75" t="s">
         <v>36</v>
       </c>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
       <c r="I75">
         <v>3</v>
       </c>
@@ -3203,14 +3010,9 @@
       <c r="B76" t="s">
         <v>36</v>
       </c>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
       <c r="I76">
         <v>3</v>
       </c>
@@ -3232,14 +3034,9 @@
       <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
       <c r="I77">
         <v>3</v>
       </c>
@@ -3261,14 +3058,9 @@
       <c r="B78" t="s">
         <v>36</v>
       </c>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
       <c r="I78">
         <v>3</v>
       </c>
@@ -3290,14 +3082,9 @@
       <c r="B79" t="s">
         <v>36</v>
       </c>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
       <c r="I79">
         <v>3</v>
       </c>
@@ -3319,14 +3106,9 @@
       <c r="B80" t="s">
         <v>36</v>
       </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
       <c r="I80">
         <v>3</v>
       </c>
@@ -3348,14 +3130,9 @@
       <c r="B81" t="s">
         <v>36</v>
       </c>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
       <c r="I81">
         <v>3</v>
       </c>
@@ -3377,14 +3154,9 @@
       <c r="B82" t="s">
         <v>36</v>
       </c>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
       <c r="I82">
         <v>3</v>
       </c>
@@ -3406,14 +3178,9 @@
       <c r="B83" t="s">
         <v>36</v>
       </c>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
       <c r="I83">
         <v>3</v>
       </c>
@@ -3435,14 +3202,9 @@
       <c r="B84" t="s">
         <v>36</v>
       </c>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="G84"/>
-      <c r="H84"/>
       <c r="I84">
         <v>3</v>
       </c>
@@ -3464,14 +3226,9 @@
       <c r="B85" t="s">
         <v>36</v>
       </c>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85"/>
-      <c r="H85"/>
       <c r="I85">
         <v>3</v>
       </c>
@@ -3493,14 +3250,9 @@
       <c r="B86" t="s">
         <v>36</v>
       </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
       <c r="I86">
         <v>3</v>
       </c>
@@ -3522,14 +3274,9 @@
       <c r="B87" t="s">
         <v>36</v>
       </c>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
       <c r="I87">
         <v>3</v>
       </c>
@@ -3551,14 +3298,9 @@
       <c r="B88" t="s">
         <v>36</v>
       </c>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
       <c r="I88">
         <v>3</v>
       </c>
@@ -3580,14 +3322,9 @@
       <c r="B89" t="s">
         <v>36</v>
       </c>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89"/>
-      <c r="H89"/>
       <c r="I89">
         <v>3</v>
       </c>
@@ -3609,14 +3346,9 @@
       <c r="B90" t="s">
         <v>36</v>
       </c>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
       <c r="I90">
         <v>3</v>
       </c>
@@ -3638,14 +3370,9 @@
       <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91"/>
-      <c r="H91"/>
       <c r="I91">
         <v>3</v>
       </c>
@@ -3667,14 +3394,9 @@
       <c r="B92" t="s">
         <v>36</v>
       </c>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92"/>
-      <c r="H92"/>
       <c r="I92">
         <v>3</v>
       </c>
@@ -3696,14 +3418,9 @@
       <c r="B93" t="s">
         <v>36</v>
       </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93"/>
-      <c r="H93"/>
       <c r="I93">
         <v>3</v>
       </c>
@@ -3725,14 +3442,9 @@
       <c r="B94" t="s">
         <v>36</v>
       </c>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94"/>
-      <c r="H94"/>
       <c r="I94">
         <v>3</v>
       </c>
@@ -3754,14 +3466,9 @@
       <c r="B95" t="s">
         <v>36</v>
       </c>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95"/>
-      <c r="H95"/>
       <c r="I95">
         <v>3</v>
       </c>
@@ -3783,14 +3490,9 @@
       <c r="B96" t="s">
         <v>36</v>
       </c>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
       <c r="I96">
         <v>3</v>
       </c>
@@ -3812,14 +3514,9 @@
       <c r="B97" t="s">
         <v>36</v>
       </c>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
       <c r="I97">
         <v>3</v>
       </c>
@@ -3841,14 +3538,9 @@
       <c r="B98" t="s">
         <v>36</v>
       </c>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98"/>
-      <c r="H98"/>
       <c r="I98">
         <v>3</v>
       </c>
@@ -3870,14 +3562,9 @@
       <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99"/>
-      <c r="H99"/>
       <c r="I99">
         <v>3</v>
       </c>
@@ -3899,14 +3586,9 @@
       <c r="B100" t="s">
         <v>36</v>
       </c>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="G100"/>
-      <c r="H100"/>
       <c r="I100">
         <v>3</v>
       </c>
@@ -3928,14 +3610,9 @@
       <c r="B101" t="s">
         <v>36</v>
       </c>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101"/>
-      <c r="H101"/>
       <c r="I101">
         <v>3</v>
       </c>
@@ -3957,14 +3634,9 @@
       <c r="B102" t="s">
         <v>36</v>
       </c>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102"/>
-      <c r="H102"/>
       <c r="I102">
         <v>3</v>
       </c>
@@ -3986,14 +3658,9 @@
       <c r="B103" t="s">
         <v>36</v>
       </c>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103"/>
-      <c r="H103"/>
       <c r="I103">
         <v>3</v>
       </c>
@@ -4015,14 +3682,9 @@
       <c r="B104" t="s">
         <v>36</v>
       </c>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104"/>
-      <c r="H104"/>
       <c r="I104">
         <v>3</v>
       </c>
@@ -4044,14 +3706,9 @@
       <c r="B105" t="s">
         <v>36</v>
       </c>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="G105"/>
-      <c r="H105"/>
       <c r="I105">
         <v>3</v>
       </c>
@@ -4073,14 +3730,9 @@
       <c r="B106" t="s">
         <v>36</v>
       </c>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106"/>
-      <c r="H106"/>
       <c r="I106">
         <v>3</v>
       </c>
@@ -4102,14 +3754,9 @@
       <c r="B107" t="s">
         <v>36</v>
       </c>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
       <c r="F107">
         <v>1</v>
       </c>
-      <c r="G107"/>
-      <c r="H107"/>
       <c r="I107">
         <v>3</v>
       </c>
@@ -4131,14 +3778,9 @@
       <c r="B108" t="s">
         <v>37</v>
       </c>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
       <c r="F108">
         <v>1</v>
       </c>
-      <c r="G108"/>
-      <c r="H108"/>
       <c r="I108">
         <v>4</v>
       </c>
@@ -4160,14 +3802,9 @@
       <c r="B109" t="s">
         <v>37</v>
       </c>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="G109"/>
-      <c r="H109"/>
       <c r="I109">
         <v>4</v>
       </c>
@@ -4189,14 +3826,9 @@
       <c r="B110" t="s">
         <v>37</v>
       </c>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
       <c r="F110">
         <v>1</v>
       </c>
-      <c r="G110"/>
-      <c r="H110"/>
       <c r="I110">
         <v>4</v>
       </c>
@@ -4218,14 +3850,9 @@
       <c r="B111" t="s">
         <v>37</v>
       </c>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="G111"/>
-      <c r="H111"/>
       <c r="I111">
         <v>4</v>
       </c>
@@ -4247,14 +3874,9 @@
       <c r="B112" t="s">
         <v>37</v>
       </c>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
       <c r="F112">
         <v>1</v>
       </c>
-      <c r="G112"/>
-      <c r="H112"/>
       <c r="I112">
         <v>4</v>
       </c>
@@ -4276,14 +3898,9 @@
       <c r="B113" t="s">
         <v>37</v>
       </c>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
       <c r="F113">
         <v>1</v>
       </c>
-      <c r="G113"/>
-      <c r="H113"/>
       <c r="I113">
         <v>4</v>
       </c>
@@ -4305,14 +3922,9 @@
       <c r="B114" t="s">
         <v>37</v>
       </c>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="G114"/>
-      <c r="H114"/>
       <c r="I114">
         <v>4</v>
       </c>
@@ -4334,14 +3946,9 @@
       <c r="B115" t="s">
         <v>37</v>
       </c>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="G115"/>
-      <c r="H115"/>
       <c r="I115">
         <v>4</v>
       </c>
@@ -4363,14 +3970,9 @@
       <c r="B116" t="s">
         <v>37</v>
       </c>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="G116"/>
-      <c r="H116"/>
       <c r="I116">
         <v>4</v>
       </c>
@@ -4392,14 +3994,9 @@
       <c r="B117" t="s">
         <v>37</v>
       </c>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="G117"/>
-      <c r="H117"/>
       <c r="I117">
         <v>4</v>
       </c>
@@ -4421,14 +4018,9 @@
       <c r="B118" t="s">
         <v>37</v>
       </c>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
       <c r="F118">
         <v>1</v>
       </c>
-      <c r="G118"/>
-      <c r="H118"/>
       <c r="I118">
         <v>4</v>
       </c>
@@ -4450,14 +4042,9 @@
       <c r="B119" t="s">
         <v>37</v>
       </c>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
       <c r="F119">
         <v>1</v>
       </c>
-      <c r="G119"/>
-      <c r="H119"/>
       <c r="I119">
         <v>4</v>
       </c>
@@ -4479,14 +4066,9 @@
       <c r="B120" t="s">
         <v>37</v>
       </c>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="G120"/>
-      <c r="H120"/>
       <c r="I120">
         <v>4</v>
       </c>
@@ -4508,14 +4090,9 @@
       <c r="B121" t="s">
         <v>37</v>
       </c>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="G121"/>
-      <c r="H121"/>
       <c r="I121">
         <v>4</v>
       </c>
@@ -4537,14 +4114,9 @@
       <c r="B122" t="s">
         <v>37</v>
       </c>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
       <c r="F122">
         <v>1</v>
       </c>
-      <c r="G122"/>
-      <c r="H122"/>
       <c r="I122">
         <v>4</v>
       </c>
@@ -4566,14 +4138,9 @@
       <c r="B123" t="s">
         <v>37</v>
       </c>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="G123"/>
-      <c r="H123"/>
       <c r="I123">
         <v>4</v>
       </c>
@@ -4595,14 +4162,9 @@
       <c r="B124" t="s">
         <v>37</v>
       </c>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
       <c r="F124">
         <v>1</v>
       </c>
-      <c r="G124"/>
-      <c r="H124"/>
       <c r="I124">
         <v>4</v>
       </c>
@@ -4624,14 +4186,9 @@
       <c r="B125" t="s">
         <v>37</v>
       </c>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="G125"/>
-      <c r="H125"/>
       <c r="I125">
         <v>4</v>
       </c>
@@ -4653,14 +4210,9 @@
       <c r="B126" t="s">
         <v>37</v>
       </c>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126"/>
-      <c r="H126"/>
       <c r="I126">
         <v>4</v>
       </c>
@@ -4682,14 +4234,9 @@
       <c r="B127" t="s">
         <v>37</v>
       </c>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
       <c r="F127">
         <v>1</v>
       </c>
-      <c r="G127"/>
-      <c r="H127"/>
       <c r="I127">
         <v>4</v>
       </c>
